--- a/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="555" windowWidth="12720" windowHeight="7185" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="675" yWindow="555" windowWidth="12720" windowHeight="7185" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -541,7 +541,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,11 +1462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="16" style="17" bestFit="1" customWidth="1"/>
@@ -1485,7 +1485,7 @@
     <col min="15" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="41.45">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>146</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1542,7 +1542,9 @@
       <c r="F2" s="20">
         <v>0.96250000000000002</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>42499</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>110</v>
       </c>
@@ -1565,22 +1567,22 @@
         <v>-124.94451666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="5" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="10" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="11" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="12" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="13" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="14" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="15" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="16" spans="1:14" customFormat="1" ht="14.45"/>
-    <row r="17" customFormat="1" ht="14.45"/>
-    <row r="18" customFormat="1" ht="14.45"/>
-    <row r="19" customFormat="1" ht="14.45"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1591,12 +1593,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
@@ -1610,7 +1612,7 @@
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="27.6">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1650,7 +1652,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="D4" s="9"/>
       <c r="F4" s="23"/>
@@ -1680,7 +1682,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1707,7 +1709,7 @@
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -1734,7 +1736,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -1788,7 +1790,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1815,7 +1817,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -1842,7 +1844,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C14"/>
       <c r="D14" s="9"/>
       <c r="F14" s="9"/>
@@ -1937,7 +1939,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -1964,7 +1966,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -1991,10 +1993,10 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="15">
+    <row r="17" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -2021,7 +2023,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -2048,7 +2050,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C20"/>
       <c r="D20" s="9"/>
       <c r="F20" s="9"/>
@@ -2056,7 +2058,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C22"/>
       <c r="D22" s="9"/>
       <c r="F22" s="9"/>
@@ -2089,7 +2091,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -2116,7 +2118,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2143,7 +2145,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C25"/>
       <c r="D25" s="9"/>
       <c r="F25" s="9"/>
@@ -2151,7 +2153,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -2178,7 +2180,7 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2205,7 +2207,7 @@
       </c>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
@@ -2232,7 +2234,7 @@
       </c>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -2286,7 +2288,7 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -2313,7 +2315,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2340,7 +2342,7 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C33"/>
       <c r="D33" s="9"/>
       <c r="F33" s="9"/>
@@ -2348,7 +2350,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -2375,7 +2377,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2402,7 +2404,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2429,7 +2431,7 @@
       </c>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2456,7 +2458,7 @@
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -2483,7 +2485,7 @@
       </c>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2510,7 +2512,7 @@
       </c>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" ht="15">
+    <row r="40" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>94</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="D41" s="9"/>
       <c r="F41" s="9"/>
@@ -2547,7 +2549,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -2574,7 +2576,7 @@
       </c>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -2601,7 +2603,7 @@
       </c>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -2655,7 +2657,7 @@
       </c>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2682,7 +2684,7 @@
       </c>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2709,7 +2711,7 @@
       </c>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -2736,7 +2738,7 @@
       </c>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" ht="15">
+    <row r="49" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="D50" s="9"/>
       <c r="F50" s="9"/>
@@ -2770,7 +2772,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
@@ -2797,7 +2799,7 @@
       </c>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
@@ -2824,7 +2826,7 @@
       </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -2851,7 +2853,7 @@
       </c>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -2878,7 +2880,7 @@
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -2905,7 +2907,7 @@
       </c>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="D61" s="9"/>
       <c r="F61" s="9"/>
@@ -3056,7 +3058,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>97</v>
       </c>
@@ -3083,7 +3085,7 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="63" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>97</v>
       </c>
@@ -3110,7 +3112,7 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="64" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>97</v>
       </c>
@@ -3137,7 +3139,7 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="65" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>97</v>
       </c>
@@ -3164,7 +3166,7 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="66" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>97</v>
       </c>
@@ -3191,7 +3193,7 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="67" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>97</v>
       </c>
@@ -3218,7 +3220,7 @@
       </c>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="68" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>97</v>
       </c>
@@ -3245,7 +3247,7 @@
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="69" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>97</v>
       </c>
@@ -3272,7 +3274,7 @@
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="70" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>97</v>
       </c>
@@ -3299,7 +3301,7 @@
       </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="71" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>97</v>
       </c>
@@ -3326,7 +3328,7 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="72" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>97</v>
       </c>
@@ -3353,7 +3355,7 @@
       </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="73" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>97</v>
       </c>
@@ -3380,7 +3382,7 @@
       </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="74" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>97</v>
       </c>
@@ -3407,7 +3409,7 @@
       </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="75" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>97</v>
       </c>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="76" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>97</v>
       </c>
@@ -3461,7 +3463,7 @@
       </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="77" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
@@ -3488,7 +3490,7 @@
       </c>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="78" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>97</v>
       </c>
@@ -3515,7 +3517,7 @@
       </c>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="79" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>97</v>
       </c>
@@ -3542,7 +3544,7 @@
       </c>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="80" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="81" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>97</v>
       </c>
@@ -3596,7 +3598,7 @@
       </c>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="82" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3625,7 @@
       </c>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="83" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>97</v>
       </c>
@@ -3650,7 +3652,7 @@
       </c>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="84" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>97</v>
       </c>
@@ -3677,7 +3679,7 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" s="7" customFormat="1" ht="15">
+    <row r="85" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -3704,10 +3706,10 @@
       </c>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" s="9" customFormat="1" ht="15">
+    <row r="86" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -3734,7 +3736,7 @@
       </c>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3761,7 +3763,7 @@
       </c>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3788,7 +3790,7 @@
       </c>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C90"/>
       <c r="D90" s="9"/>
       <c r="F90" s="9"/>
@@ -3796,7 +3798,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>99</v>
       </c>
@@ -3881,7 +3883,7 @@
       </c>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -3908,7 +3910,7 @@
       </c>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -3935,7 +3937,7 @@
       </c>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -3962,7 +3964,7 @@
       </c>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -3989,7 +3991,7 @@
       </c>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C98"/>
       <c r="D98" s="9"/>
       <c r="F98" s="9"/>
@@ -3997,7 +3999,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -4024,7 +4026,7 @@
       </c>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -4051,7 +4053,7 @@
       </c>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4078,7 +4080,7 @@
       </c>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C102"/>
       <c r="D102" s="9"/>
       <c r="F102" s="9"/>
@@ -4086,10 +4088,10 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" ht="15">
+    <row r="103" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C106"/>
       <c r="D106" s="9"/>
       <c r="F106" s="23"/>
@@ -4141,7 +4143,7 @@
       <c r="H106" s="9"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
@@ -4207,7 +4209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="F111" s="9"/>
@@ -4237,7 +4239,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" spans="1:9" ht="13.9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="F112" s="9"/>
@@ -4245,7 +4247,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="3:9" ht="13.9">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="F113" s="9"/>
@@ -4253,7 +4255,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="3:9" ht="13.9">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="F114" s="9"/>
@@ -4261,7 +4263,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="3:9" ht="13.9">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="F115" s="9"/>
@@ -4269,7 +4271,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="3:9" ht="13.9">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="F116" s="9"/>
@@ -4277,7 +4279,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="3:9" ht="13.9">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="F117" s="9"/>
@@ -4285,7 +4287,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="3:9" ht="13.9">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="F118" s="9"/>
@@ -4293,7 +4295,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="3:9" ht="13.9">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="F119" s="9"/>
@@ -4301,7 +4303,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="3:9" ht="13.9">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="F120" s="9"/>
@@ -4309,7 +4311,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="3:9" ht="13.9">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="F121" s="9"/>
@@ -4317,7 +4319,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="3:9" ht="13.9">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="F122" s="9"/>
@@ -4325,7 +4327,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="3:9" ht="13.9">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="F123" s="9"/>
@@ -4333,7 +4335,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="3:9" ht="13.9">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="F124" s="9"/>
@@ -4341,7 +4343,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="3:9" ht="13.9">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="F125" s="9"/>
@@ -4349,7 +4351,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="3:9" ht="13.9">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="F126" s="9"/>
@@ -4357,7 +4359,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9" ht="13.9">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="F127" s="9"/>
@@ -4365,7 +4367,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9" ht="13.9">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="F128" s="9"/>
@@ -4373,7 +4375,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="3:9" ht="13.9">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="F129" s="9"/>
@@ -4381,7 +4383,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="3:9" ht="13.9">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="F130" s="9"/>
@@ -4389,7 +4391,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="3:9" ht="13.9">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="F131" s="9"/>
@@ -4397,7 +4399,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="3:9" ht="13.9">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="F132" s="9"/>
@@ -4405,7 +4407,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="3:9" ht="13.9">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="F133" s="9"/>
@@ -4413,7 +4415,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" spans="3:9" ht="13.9">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="F134" s="9"/>
@@ -4421,7 +4423,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="3:9" ht="13.9">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="F135" s="9"/>
@@ -4429,7 +4431,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="3:9" ht="13.9">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="F136" s="9"/>
@@ -4437,7 +4439,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137" spans="3:9" ht="13.9">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="F137" s="9"/>
@@ -4445,7 +4447,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138" spans="3:9" ht="13.9">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="F138" s="9"/>
@@ -4453,7 +4455,7 @@
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139" spans="3:9" ht="13.9">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="F139" s="9"/>
@@ -4461,7 +4463,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" spans="3:9">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="F140" s="9"/>
@@ -4469,7 +4471,7 @@
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" spans="3:9">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="F141" s="9"/>
@@ -4477,7 +4479,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="3:9">
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="F142" s="9"/>
@@ -4485,7 +4487,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="3:9">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="F143" s="9"/>
@@ -4493,7 +4495,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="3:9">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="F144" s="9"/>
@@ -4501,7 +4503,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="3:9">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="F145" s="9"/>
@@ -4509,7 +4511,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="3:9">
+    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="F146" s="9"/>
@@ -4517,7 +4519,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="3:9">
+    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="F147" s="9"/>
@@ -4525,7 +4527,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="3:9">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="F148" s="9"/>
@@ -4533,7 +4535,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="3:9">
+    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="F149" s="9"/>
@@ -4541,7 +4543,7 @@
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" spans="3:9">
+    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="F150" s="9"/>
@@ -4549,7 +4551,7 @@
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="3:9">
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="F151" s="9"/>
@@ -4557,7 +4559,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="3:9">
+    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="F152" s="9"/>
@@ -4565,7 +4567,7 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="3:9">
+    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="F153" s="9"/>
@@ -4573,7 +4575,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="3:9">
+    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="F154" s="9"/>
@@ -4581,7 +4583,7 @@
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" spans="3:9">
+    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="F155" s="9"/>
@@ -4589,7 +4591,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="3:9">
+    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="F156" s="9"/>
@@ -4597,7 +4599,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="3:9">
+    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="F157" s="9"/>
@@ -4605,7 +4607,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="3:9">
+    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="F158" s="9"/>
@@ -4613,7 +4615,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="3:9">
+    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="F159" s="9"/>
@@ -4621,7 +4623,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="3:9">
+    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="F160" s="9"/>
@@ -4629,7 +4631,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="3:9">
+    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="F161" s="9"/>
@@ -4637,7 +4639,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="3:9">
+    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="F162" s="9"/>
@@ -4645,7 +4647,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="3:9">
+    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="F163" s="9"/>
@@ -4653,7 +4655,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="3:9">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="F164" s="9"/>
@@ -4661,7 +4663,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="3:9">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="F165" s="9"/>
@@ -4669,7 +4671,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="3:9">
+    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="F166" s="9"/>
@@ -4677,7 +4679,7 @@
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" spans="3:9">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="F167" s="9"/>
@@ -4685,7 +4687,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="3:9">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="F168" s="9"/>
@@ -4693,7 +4695,7 @@
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="3:9">
+    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="F169" s="9"/>
@@ -4701,7 +4703,7 @@
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="3:9">
+    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="F170" s="9"/>
@@ -4709,7 +4711,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="3:9">
+    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="F171" s="9"/>
@@ -4717,7 +4719,7 @@
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="3:9">
+    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="F172" s="9"/>
@@ -4725,7 +4727,7 @@
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="3:9">
+    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="F173" s="9"/>
@@ -4733,7 +4735,7 @@
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="3:9">
+    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="F174" s="9"/>
@@ -4741,7 +4743,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="3:9">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="F175" s="9"/>
@@ -4749,7 +4751,7 @@
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="3:9">
+    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="F176" s="9"/>
@@ -4774,7 +4776,7 @@
       <selection activeCell="V25" sqref="A1:AL81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -4784,7 +4786,7 @@
     <col min="35" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>-0.14875099999999999</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>5.8522999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>-0.134552</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>4.9484E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>-0.11949</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>3.9733999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>-0.104161</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>3.1449999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>-9.1335E-2</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>2.4292999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>-8.0281000000000005E-2</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>1.9636000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>-7.1467000000000003E-2</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>1.6139000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>-6.5172999999999995E-2</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>1.2895999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>-5.9031E-2</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>1.1384999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>-5.4380999999999999E-2</v>
       </c>
@@ -5944,7 +5946,7 @@
         <v>1.0057E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>-4.9981999999999999E-2</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>8.7779999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>-4.6751000000000001E-2</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>7.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>-4.3227000000000002E-2</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>6.6870000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>-3.9961999999999998E-2</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>6.319E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>-3.7470999999999997E-2</v>
       </c>
@@ -6524,7 +6526,7 @@
         <v>5.7800000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>-3.5221000000000002E-2</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>5.3730000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>-3.3360000000000001E-2</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>5.0410000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>-3.1677999999999998E-2</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>4.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>-2.9982999999999999E-2</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>4.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>-2.8764000000000001E-2</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>-2.7525999999999998E-2</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>4.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>-2.6766000000000002E-2</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>4.2830000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>-2.6016999999999998E-2</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>4.1859999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>-2.5180000000000001E-2</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>4.1869999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>-2.4445000000000001E-2</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>-2.3739E-2</v>
       </c>
@@ -7800,7 +7802,7 @@
         <v>4.2310000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>-2.3251000000000001E-2</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>4.2259999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>-2.298E-2</v>
       </c>
@@ -8032,7 +8034,7 @@
         <v>4.169E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>-2.2266000000000001E-2</v>
       </c>
@@ -8148,7 +8150,7 @@
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>-2.2055999999999999E-2</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>4.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>-2.1724E-2</v>
       </c>
@@ -8380,7 +8382,7 @@
         <v>4.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>-2.1425E-2</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>4.6039999999999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>-2.1302000000000001E-2</v>
       </c>
@@ -8612,7 +8614,7 @@
         <v>4.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>-2.1166999999999998E-2</v>
       </c>
@@ -8728,7 +8730,7 @@
         <v>4.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>-2.0912E-2</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>-2.0811E-2</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>4.9800000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>-2.0915E-2</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>5.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>-2.0834999999999999E-2</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>5.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>-2.0604000000000001E-2</v>
       </c>
@@ -9308,7 +9310,7 @@
         <v>5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>-2.0059E-2</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>5.0210000000000003E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="14.45">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>-1.9515999999999999E-2</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>4.8729999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="14.45">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>-1.9126000000000001E-2</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>4.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="14.45">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>-1.8613000000000001E-2</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>4.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="14.45">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>-1.8095E-2</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>3.9789999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="14.45">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>-1.7356E-2</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>3.5119999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="14.45">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>-9.6500000000000006E-3</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>-9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="14.45">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>-9.8589999999999997E-3</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>-7.3499999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="14.45">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>-1.0196E-2</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>-5.3300000000000005E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="14.45">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>-1.0458E-2</v>
       </c>
@@ -10468,7 +10470,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="14.45">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>-1.0737E-2</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="14.45">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>-1.0996000000000001E-2</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="14.45">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>-1.1231E-2</v>
       </c>
@@ -10816,7 +10818,7 @@
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="14.45">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>-1.1516E-2</v>
       </c>
@@ -10932,7 +10934,7 @@
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="14.45">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>-1.1776999999999999E-2</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="14.45">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>-1.1900000000000001E-2</v>
       </c>
@@ -11164,7 +11166,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="14.45">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>-1.2052E-2</v>
       </c>
@@ -11280,7 +11282,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="14.45">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>-1.2101000000000001E-2</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="14.45">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>-1.217E-2</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>8.9499999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="14.45">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>-1.2319E-2</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>9.990000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="14.45">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>-1.2442999999999999E-2</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="14.45">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>-1.2633E-2</v>
       </c>
@@ -11860,7 +11862,7 @@
         <v>1.232E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="14.45">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>-1.2794E-2</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>1.348E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="14.45">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>-1.2991000000000001E-2</v>
       </c>
@@ -12092,7 +12094,7 @@
         <v>1.449E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="14.45">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>-1.3187000000000001E-2</v>
       </c>
@@ -12208,7 +12210,7 @@
         <v>1.575E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="14.45">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>-1.3429999999999999E-2</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="14.45">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>-1.3672999999999999E-2</v>
       </c>
@@ -12440,7 +12442,7 @@
         <v>1.748E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="14.45">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>-1.406E-2</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="14.45">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>-1.4260999999999999E-2</v>
       </c>
@@ -12672,7 +12674,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="14.45">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>-1.4262E-2</v>
       </c>
@@ -12788,7 +12790,7 @@
         <v>1.9889999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="14.45">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>-1.4329E-2</v>
       </c>
@@ -12904,7 +12906,7 @@
         <v>1.9710000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="14.45">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>-1.4213E-2</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>2.0040000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="14.45">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>-1.3991E-2</v>
       </c>
@@ -13136,7 +13138,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>-1.3724999999999999E-2</v>
       </c>
@@ -13252,7 +13254,7 @@
         <v>1.9070000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>-1.3350000000000001E-2</v>
       </c>
@@ -13368,7 +13370,7 @@
         <v>1.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>-1.3268E-2</v>
       </c>
@@ -13484,7 +13486,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>-1.3353E-2</v>
       </c>
@@ -13600,7 +13602,7 @@
         <v>1.377E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>-1.3552E-2</v>
       </c>
@@ -13716,7 +13718,7 @@
         <v>1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>-1.3693E-2</v>
       </c>
@@ -13832,7 +13834,7 @@
         <v>8.03E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>-1.4012999999999999E-2</v>
       </c>
@@ -13948,7 +13950,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>-1.4388E-2</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>5.4600000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>-1.4749E-2</v>
       </c>
@@ -14180,13 +14182,13 @@
         <v>4.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
     </row>
   </sheetData>
@@ -14202,7 +14204,7 @@
       <selection activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
@@ -14214,7 +14216,7 @@
     <col min="39" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>-4.6049999999999997E-3</v>
       </c>
@@ -14330,7 +14332,7 @@
         <v>7.2649999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>-4.4650000000000002E-3</v>
       </c>
@@ -14446,7 +14448,7 @@
         <v>8.9390000000000008E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>-4.862E-3</v>
       </c>
@@ -14562,7 +14564,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>-4.3439999999999998E-3</v>
       </c>
@@ -14678,7 +14680,7 @@
         <v>9.9419999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>-4.0289999999999996E-3</v>
       </c>
@@ -14794,7 +14796,7 @@
         <v>1.0742E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>-1.8289999999999999E-3</v>
       </c>
@@ -14910,7 +14912,7 @@
         <v>9.9989999999999992E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -15026,7 +15028,7 @@
         <v>1.0307999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>-2.7700000000000001E-4</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>1.1178E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>-4.7899999999999999E-4</v>
       </c>
@@ -15258,7 +15260,7 @@
         <v>9.9970000000000007E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>1.07E-3</v>
       </c>
@@ -15374,7 +15376,7 @@
         <v>1.0616E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2.1580000000000002E-3</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>1.0297000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2.0089999999999999E-3</v>
       </c>
@@ -15606,7 +15608,7 @@
         <v>9.9069999999999991E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>2.4759999999999999E-3</v>
       </c>
@@ -15722,7 +15724,7 @@
         <v>9.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>3.947E-3</v>
       </c>
@@ -15838,7 +15840,7 @@
         <v>9.3349999999999995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>3.1640000000000001E-3</v>
       </c>
@@ -15954,7 +15956,7 @@
         <v>8.5389999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>3.8010000000000001E-3</v>
       </c>
@@ -16070,7 +16072,7 @@
         <v>8.4159999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>4.1479999999999998E-3</v>
       </c>
@@ -16186,7 +16188,7 @@
         <v>7.8820000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>4.1679999999999998E-3</v>
       </c>
@@ -16302,7 +16304,7 @@
         <v>7.5009999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>4.5490000000000001E-3</v>
       </c>
@@ -16418,7 +16420,7 @@
         <v>6.8970000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>3.882E-3</v>
       </c>
@@ -16534,7 +16536,7 @@
         <v>6.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>4.2900000000000004E-3</v>
       </c>
@@ -16650,7 +16652,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>4.6239999999999996E-3</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>5.078E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>4.4929999999999996E-3</v>
       </c>
@@ -16882,7 +16884,7 @@
         <v>4.4200000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>4.2700000000000004E-3</v>
       </c>
@@ -16998,7 +17000,7 @@
         <v>3.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>4.2170000000000003E-3</v>
       </c>
@@ -17114,7 +17116,7 @@
         <v>3.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>3.973E-3</v>
       </c>
@@ -17230,7 +17232,7 @@
         <v>2.555E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>3.8089999999999999E-3</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>1.885E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>3.823E-3</v>
       </c>
@@ -17462,7 +17464,7 @@
         <v>1.255E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>3.3379999999999998E-3</v>
       </c>
@@ -17578,7 +17580,7 @@
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>3.712E-3</v>
       </c>
@@ -17694,7 +17696,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>3.637E-3</v>
       </c>
@@ -17810,7 +17812,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>3.5820000000000001E-3</v>
       </c>
@@ -17926,7 +17928,7 @@
         <v>-1.083E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>3.7829999999999999E-3</v>
       </c>
@@ -18042,7 +18044,7 @@
         <v>-1.598E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>3.8370000000000001E-3</v>
       </c>
@@ -18158,7 +18160,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>3.7959999999999999E-3</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>-2.6940000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>4.1409999999999997E-3</v>
       </c>
@@ -18390,7 +18392,7 @@
         <v>-3.0620000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>3.6740000000000002E-3</v>
       </c>
@@ -18506,7 +18508,7 @@
         <v>-3.6029999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>3.2669999999999999E-3</v>
       </c>
@@ -18622,7 +18624,7 @@
         <v>-4.0790000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -18738,7 +18740,7 @@
         <v>-4.4970000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>2.5899999999999999E-3</v>
       </c>
@@ -18854,7 +18856,7 @@
         <v>-4.9690000000000003E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="14.45">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>2.8279999999999998E-3</v>
       </c>
@@ -18970,7 +18972,7 @@
         <v>-5.2900000000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="14.45">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>2.8410000000000002E-3</v>
       </c>
@@ -19086,7 +19088,7 @@
         <v>-5.5110000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="14.45">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>2.807E-3</v>
       </c>
@@ -19202,7 +19204,7 @@
         <v>-5.6990000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="14.45">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>2.9750000000000002E-3</v>
       </c>
@@ -19318,7 +19320,7 @@
         <v>-5.7970000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="14.45">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>2.663E-3</v>
       </c>
@@ -19434,7 +19436,7 @@
         <v>-5.9560000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="14.45">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>8.0169999999999998E-3</v>
       </c>
@@ -19550,7 +19552,7 @@
         <v>-5.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="14.45">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>8.0420000000000005E-3</v>
       </c>
@@ -19666,7 +19668,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="14.45">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>7.7520000000000002E-3</v>
       </c>
@@ -19782,7 +19784,7 @@
         <v>-5.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="14.45">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>7.4409999999999997E-3</v>
       </c>
@@ -19898,7 +19900,7 @@
         <v>-6.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="14.45">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>7.1060000000000003E-3</v>
       </c>
@@ -20014,7 +20016,7 @@
         <v>-6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="14.45">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>6.6649999999999999E-3</v>
       </c>
@@ -20130,7 +20132,7 @@
         <v>-6.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="14.45">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>6.4349999999999997E-3</v>
       </c>
@@ -20246,7 +20248,7 @@
         <v>-6.3270000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="14.45">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>6.2529999999999999E-3</v>
       </c>
@@ -20362,7 +20364,7 @@
         <v>-6.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="14.45">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>5.9969999999999997E-3</v>
       </c>
@@ -20478,7 +20480,7 @@
         <v>-6.3600000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="14.45">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>5.7229999999999998E-3</v>
       </c>
@@ -20594,7 +20596,7 @@
         <v>-6.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="14.45">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>5.6090000000000003E-3</v>
       </c>
@@ -20710,7 +20712,7 @@
         <v>-6.3410000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="14.45">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>5.3769999999999998E-3</v>
       </c>
@@ -20826,7 +20828,7 @@
         <v>-6.2909999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="14.45">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>5.2259999999999997E-3</v>
       </c>
@@ -20942,7 +20944,7 @@
         <v>-6.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="14.45">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>5.189E-3</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>-6.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="14.45">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>5.0039999999999998E-3</v>
       </c>
@@ -21174,7 +21176,7 @@
         <v>-6.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="14.45">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>4.7520000000000001E-3</v>
       </c>
@@ -21290,7 +21292,7 @@
         <v>-6.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="14.45">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>4.7959999999999999E-3</v>
       </c>
@@ -21406,7 +21408,7 @@
         <v>-6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="14.45">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>4.7720000000000002E-3</v>
       </c>
@@ -21522,7 +21524,7 @@
         <v>-6.1069999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="14.45">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>4.5500000000000002E-3</v>
       </c>
@@ -21638,7 +21640,7 @@
         <v>-6.071E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="14.45">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>4.4380000000000001E-3</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>-5.9709999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="14.45">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>3.7780000000000001E-3</v>
       </c>
@@ -21870,7 +21872,7 @@
         <v>-6.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="14.45">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>3.5929999999999998E-3</v>
       </c>
@@ -21986,7 +21988,7 @@
         <v>-5.9690000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="14.45">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>3.395E-3</v>
       </c>
@@ -22102,7 +22104,7 @@
         <v>-5.9259999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="14.45">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>3.4420000000000002E-3</v>
       </c>
@@ -22218,7 +22220,7 @@
         <v>-5.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="14.45">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>3.3649999999999999E-3</v>
       </c>
@@ -22334,7 +22336,7 @@
         <v>-5.7419999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="14.45">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>3.4160000000000002E-3</v>
       </c>
@@ -22450,7 +22452,7 @@
         <v>-5.6540000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="14.45">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>3.405E-3</v>
       </c>
@@ -22566,7 +22568,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="14.45">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>3.4129999999999998E-3</v>
       </c>
@@ -22682,7 +22684,7 @@
         <v>-5.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="14.45">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>3.6259999999999999E-3</v>
       </c>
@@ -22798,7 +22800,7 @@
         <v>-5.2989999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="14.45">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>3.32E-3</v>
       </c>
@@ -22914,7 +22916,7 @@
         <v>-5.1650000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="14.45">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>3.4859999999999999E-3</v>
       </c>
@@ -23030,7 +23032,7 @@
         <v>-5.0090000000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="14.45">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>3.7569999999999999E-3</v>
       </c>
@@ -23146,7 +23148,7 @@
         <v>-4.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="14.45">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>4.1440000000000001E-3</v>
       </c>
@@ -23262,7 +23264,7 @@
         <v>-4.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="14.45">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>4.6039999999999996E-3</v>
       </c>
@@ -23378,7 +23380,7 @@
         <v>-4.4580000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="14.45">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>4.6090000000000002E-3</v>
       </c>
@@ -23494,7 +23496,7 @@
         <v>-4.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="14.45">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>3.741E-3</v>
       </c>
@@ -23610,10 +23612,10 @@
         <v>-6.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="14.45">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
     </row>
-    <row r="83" spans="1:38" ht="14.45">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="675" yWindow="555" windowWidth="12720" windowHeight="7185" tabRatio="766"/>
+    <workbookView xWindow="675" yWindow="555" windowWidth="12720" windowHeight="7185" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -19,12 +24,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="177">
   <si>
     <t>Ref Des</t>
   </si>
@@ -323,12 +328,6 @@
     <t>CE04OSSM-RID27-04-DOSTAD000</t>
   </si>
   <si>
-    <t>CE04OSSM-RID27-07-NUTNRB000</t>
-  </si>
-  <si>
-    <t>CE04OSSM-RID27-08-SPKIRB000</t>
-  </si>
-  <si>
     <t>CE04OSSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
@@ -528,6 +527,51 @@
   </si>
   <si>
     <t>N00735</t>
+  </si>
+  <si>
+    <t>CE04OSSM-SBD11-02-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE04OSSM-SBD12-03-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE04OSSM-RID26-07-NUTNRB000</t>
+  </si>
+  <si>
+    <t>CE04OSSM-RID26-08-SPKIRB000</t>
+  </si>
+  <si>
+    <t>CE04OSSM-00001+HYDGN1102</t>
+  </si>
+  <si>
+    <t>CE04OSSM-00001+HYDGN1203</t>
+  </si>
+  <si>
+    <t>OL000376</t>
+  </si>
+  <si>
+    <t>OL000377</t>
+  </si>
+  <si>
+    <t>OL000378</t>
+  </si>
+  <si>
+    <t>OL000379</t>
+  </si>
+  <si>
+    <t>OL000380</t>
+  </si>
+  <si>
+    <t>OL000381</t>
+  </si>
+  <si>
+    <t>OL000382</t>
+  </si>
+  <si>
+    <t>OL000383</t>
+  </si>
+  <si>
+    <t>OL000384</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1251,7 +1295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1531,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1525,13 +1569,13 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="21">
         <v>1</v>
@@ -1546,16 +1590,16 @@
         <v>42499</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" s="5">
         <v>587</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="22">
@@ -1591,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1612,12 +1656,12 @@
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -1626,7 +1670,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>2</v>
@@ -1641,7 +1685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1652,552 +1696,552 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
       <c r="F3" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" s="9"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>89</v>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>44.366700000000002</v>
-      </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="9">
-        <v>-124.94451666666667</v>
-      </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="9">
-        <v>4.08</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H9" s="9">
-        <v>4.08</v>
+        <v>44.366700000000002</v>
       </c>
       <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H10" s="9">
-        <v>4.6399999999999997</v>
+        <v>-124.94451666666667</v>
       </c>
       <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="L11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>4.08</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="L12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H13" s="9">
-        <v>600</v>
-      </c>
-      <c r="I13" s="9" t="s">
+        <v>4.08</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="L13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-      <c r="D14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="L14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H15" s="9">
-        <v>44.366700000000002</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H16" s="9">
-        <v>-124.94451666666667</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9">
-        <v>44.366700000000002</v>
-      </c>
+      <c r="I16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="9">
+        <v>600</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>44.366700000000002</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>-124.94451666666667</v>
       </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="L20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>44.366700000000002</v>
+      </c>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>113</v>
+        <v>149</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="9">
-        <v>44.366700000000002</v>
+        <v>-124.94451666666667</v>
       </c>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="L23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="9">
-        <v>-124.94451666666667</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="9">
-        <v>19002</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="9">
-        <v>5000</v>
-      </c>
+      <c r="I25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="9">
-        <v>19002</v>
+        <v>151</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>5</v>
@@ -2206,25 +2250,27 @@
         <v>44.366700000000002</v>
       </c>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="9">
-        <v>19002</v>
+        <v>151</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>6</v>
@@ -2233,2037 +2279,2197 @@
         <v>-124.94451666666667</v>
       </c>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="9">
-        <v>19002</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.45</v>
-      </c>
+      <c r="L28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F30" s="9">
         <v>19002</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H30" s="9">
-        <v>0.45</v>
+        <v>5000</v>
       </c>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F31" s="9">
         <v>19002</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H31" s="9">
-        <v>0.45</v>
+        <v>44.366700000000002</v>
       </c>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="9">
         <v>19002</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H32" s="9">
+        <v>-124.94451666666667</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="9">
+        <v>19002</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9">
         <v>0.45</v>
       </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-      <c r="D33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="F34" s="9">
+        <v>19002</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H34" s="9">
-        <v>17533</v>
+        <v>0.45</v>
       </c>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="9">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="F35" s="9">
+        <v>19002</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H35" s="9">
-        <v>101</v>
+        <v>0.45</v>
       </c>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="F36" s="9">
+        <v>19002</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H36" s="9">
-        <v>2229</v>
+        <v>0.45</v>
       </c>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9">
-        <v>38502</v>
-      </c>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C37"/>
+      <c r="D37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="28">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H38" s="9">
+        <v>17533</v>
       </c>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="9">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="28">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H39" s="9">
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="9">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H40" s="9">
-        <v>35</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-      <c r="D41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+        <v>2229</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9">
+        <v>38502</v>
+      </c>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" s="9">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="H42" s="28">
+        <v>0</v>
       </c>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="9">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="H43" s="28">
+        <v>1</v>
       </c>
       <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>95</v>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="9">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H44" s="9">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45"/>
+      <c r="D45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="9">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="9">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="9">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>118</v>
+        <v>42</v>
+      </c>
+      <c r="H48" s="9">
+        <v>19.899999999999999</v>
       </c>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="6">
+        <v>106</v>
+      </c>
+      <c r="D49" s="9">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-      <c r="D50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="9">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="9">
-        <v>1151</v>
+        <v>154</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="9">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D52" s="9">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1151</v>
+        <v>154</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1.877E-6</v>
+        <v>81</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>96</v>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="9">
+        <v>106</v>
+      </c>
+      <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1151</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="9">
-        <v>48</v>
-      </c>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1151</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="9">
-        <v>7.3000000000000001E-3</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C54"/>
+      <c r="D54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" s="9">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F55" s="9">
         <v>1151</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H55" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" s="9">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F56" s="9">
         <v>1151</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H56" s="9">
-        <v>9.0200000000000002E-2</v>
+        <v>1.877E-6</v>
       </c>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57" s="9">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="9">
         <v>1151</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="H57" s="9">
-        <v>117</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D58" s="9">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F58" s="9">
         <v>1151</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H58" s="9">
-        <v>700</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D59" s="9">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" s="9">
         <v>1151</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H59" s="9">
-        <v>1.08</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D60" s="9">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F60" s="9">
         <v>1151</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="H60" s="9">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I60" s="9" t="s">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1151</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="9">
+        <v>117</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C61"/>
-      <c r="D61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="9">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>114</v>
+        <v>155</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1151</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H62" s="9">
-        <v>44.366700000000002</v>
-      </c>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>97</v>
+        <v>700</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="9">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>114</v>
+        <v>155</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1151</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H63" s="9">
-        <v>-124.94451666666667</v>
-      </c>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>97</v>
+        <v>1.08</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D64" s="9">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>114</v>
+        <v>155</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1151</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H64" s="9">
-        <v>1.254062E-3</v>
-      </c>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65"/>
+      <c r="D65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" s="9">
-        <v>2.7485969999999999E-4</v>
-      </c>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D66" s="9">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="H66" s="9">
-        <v>-1.176268E-6</v>
+        <v>44.366700000000002</v>
       </c>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="H67" s="9">
-        <v>1.8403809999999999E-7</v>
+        <v>-124.94451666666667</v>
       </c>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H68" s="9">
-        <v>-59.278405200000002</v>
+        <v>1.254062E-3</v>
       </c>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69" s="9">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H69" s="9">
-        <v>53.6581701</v>
+        <v>2.7485969999999999E-4</v>
       </c>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H70" s="9">
-        <v>-0.35581304499999999</v>
+        <v>-1.176268E-6</v>
       </c>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D71" s="9">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H71" s="9">
-        <v>524875.41099999996</v>
+        <v>1.8403809999999999E-7</v>
       </c>
       <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D72" s="9">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H72" s="9">
-        <v>-18.321615300000001</v>
+        <v>-59.278405200000002</v>
       </c>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D73" s="9">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H73" s="9">
-        <v>0.179273715</v>
+        <v>53.6581701</v>
       </c>
       <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74" s="9">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H74" s="9">
-        <v>25.100625000000001</v>
+        <v>-0.35581304499999999</v>
       </c>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D75" s="9">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H75" s="9">
-        <v>3.2499999999999999E-4</v>
+        <v>524875.41099999996</v>
       </c>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D76" s="9">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H76" s="9">
-        <v>0</v>
+        <v>-18.321615300000001</v>
       </c>
       <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D77" s="9">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H77" s="9">
-        <v>-0.146232899</v>
+        <v>0.179273715</v>
       </c>
       <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D78" s="9">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H78" s="9">
-        <v>4.8715891399999999E-4</v>
+        <v>25.100625000000001</v>
       </c>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="9">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H79" s="9">
-        <v>-5.9564635300000001E-12</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80" s="9">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H80" s="9">
-        <v>-0.97940059999999995</v>
+        <v>0</v>
       </c>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81" s="9">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H81" s="9">
-        <v>0.13973099999999999</v>
+        <v>-0.146232899</v>
       </c>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="9">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H82" s="9">
-        <v>-2.6729169999999998E-4</v>
+        <v>4.8715891399999999E-4</v>
       </c>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D83" s="9">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H83" s="9">
-        <v>4.0018580000000002E-5</v>
+        <v>-5.9564635300000001E-12</v>
       </c>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="9">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H84" s="9">
-        <v>-9.5700000000000003E-8</v>
+        <v>-0.97940059999999995</v>
       </c>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D85" s="9">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H85" s="9">
-        <v>3.2499999999999998E-6</v>
+        <v>0.13973099999999999</v>
       </c>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>98</v>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="9">
+        <v>-2.6729169999999998E-4</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" s="9">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
-      </c>
-      <c r="F87" s="9">
-        <v>291</v>
+        <v>156</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="H87" s="9">
-        <v>44.366700000000002</v>
+        <v>4.0018580000000002E-5</v>
       </c>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>98</v>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D88" s="9">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
-      </c>
-      <c r="F88" s="9">
-        <v>291</v>
+        <v>156</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="H88" s="9">
-        <v>-124.94451666666667</v>
+        <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>98</v>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
-      </c>
-      <c r="F89" s="9">
-        <v>291</v>
+        <v>156</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>125</v>
+        <v>75</v>
+      </c>
+      <c r="H89" s="9">
+        <v>3.2499999999999998E-6</v>
       </c>
       <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C90"/>
-      <c r="D90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D91" s="9">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F91" s="9">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="H91" s="9">
-        <v>217</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>44.366700000000002</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D92" s="9">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F92" s="9">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H92" s="9">
-        <v>240</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>-124.94451666666667</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93" s="9">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F93" s="9">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H93" s="9">
-        <v>20.035643160334502</v>
+        <v>11</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="9">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>160</v>
-      </c>
-      <c r="F94" s="9">
-        <v>256</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>142</v>
-      </c>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C94"/>
+      <c r="D94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D95" s="9">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F95" s="9">
         <v>256</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="H95" s="9">
+        <v>217</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D96" s="9">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F96" s="9">
         <v>256</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="H96" s="9">
+        <v>240</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" s="9">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F97" s="9">
         <v>256</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>128</v>
+        <v>46</v>
+      </c>
+      <c r="H97" s="9">
+        <v>20.035643160334502</v>
       </c>
       <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C98"/>
-      <c r="D98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>158</v>
+      </c>
+      <c r="F98" s="9">
+        <v>256</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>100</v>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D99" s="9">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="F99" s="9">
+        <v>256</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D100" s="9">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="F100" s="9">
+        <v>256</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D101" s="9">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="F101" s="9">
+        <v>256</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C102"/>
       <c r="D102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D104" s="9">
         <v>1</v>
       </c>
-      <c r="F104" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>102</v>
+      <c r="E104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D105" s="9">
         <v>1</v>
       </c>
-      <c r="F105" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C106"/>
       <c r="D106" s="9"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="23"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="9">
-        <v>1</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I106" s="9"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D108" s="9">
         <v>1</v>
       </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
       <c r="F108" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D109" s="9">
         <v>1</v>
       </c>
+      <c r="E109" t="s">
+        <v>172</v>
+      </c>
       <c r="F109" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="9">
-        <v>1</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C110"/>
+      <c r="D110" s="9"/>
+      <c r="F110" s="23"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="F111" s="9"/>
+      <c r="I110" s="23"/>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>173</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="F112" s="9"/>
+      <c r="I111" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>174</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="I112" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="I113" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="9">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="F115" s="9"/>
@@ -4271,7 +4477,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="F116" s="9"/>
@@ -4279,7 +4485,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="F117" s="9"/>
@@ -4287,7 +4493,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="F118" s="9"/>
@@ -4295,7 +4501,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="F119" s="9"/>
@@ -4303,7 +4509,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="F120" s="9"/>
@@ -4311,7 +4517,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="F121" s="9"/>
@@ -4319,7 +4525,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="F122" s="9"/>
@@ -4327,7 +4533,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="F123" s="9"/>
@@ -4335,7 +4541,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="F124" s="9"/>
@@ -4343,7 +4549,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="F125" s="9"/>
@@ -4351,7 +4557,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="F126" s="9"/>
@@ -4359,7 +4565,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="F127" s="9"/>
@@ -4367,7 +4573,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="F128" s="9"/>
@@ -4759,11 +4965,43 @@
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
+    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+    </row>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+    </row>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+    </row>
+    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F23:F24 F99:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F27:F28 F103:F105" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE04OSSM_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="555" windowWidth="12720" windowHeight="7185" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="12460" yWindow="2060" windowWidth="25560" windowHeight="13220" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -24,7 +19,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -809,16 +809,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1260,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1295,7 +1295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1506,30 +1506,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="16" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="17"/>
+    <col min="4" max="4" width="15.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="28">
       <c r="A1" s="10" t="s">
         <v>144</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1611,25 +1611,30 @@
         <v>-124.94451666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" customFormat="1"/>
+    <row r="5" spans="1:14" customFormat="1"/>
+    <row r="6" spans="1:14" customFormat="1"/>
+    <row r="7" spans="1:14" customFormat="1"/>
+    <row r="8" spans="1:14" customFormat="1"/>
+    <row r="9" spans="1:14" customFormat="1"/>
+    <row r="10" spans="1:14" customFormat="1"/>
+    <row r="11" spans="1:14" customFormat="1"/>
+    <row r="12" spans="1:14" customFormat="1"/>
+    <row r="13" spans="1:14" customFormat="1"/>
+    <row r="14" spans="1:14" customFormat="1"/>
+    <row r="15" spans="1:14" customFormat="1"/>
+    <row r="16" spans="1:14" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1637,26 +1642,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="28">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1696,7 +1701,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1721,12 +1726,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="9" customFormat="1">
       <c r="B4"/>
       <c r="C4"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="9" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
@@ -1746,12 +1751,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="9" customFormat="1">
       <c r="B6"/>
       <c r="C6"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="9" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>163</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8"/>
       <c r="D8" s="9"/>
       <c r="F8" s="23"/>
@@ -1781,7 +1786,7 @@
       <c r="L8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1810,7 +1815,7 @@
       <c r="L9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +1844,7 @@
       <c r="L10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="L11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -1897,7 +1902,7 @@
       <c r="L12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="L13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -1955,7 +1960,7 @@
       <c r="L14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +1991,7 @@
       <c r="L15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2017,7 +2022,7 @@
       <c r="L16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2053,7 @@
       <c r="L17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="C18"/>
       <c r="D18" s="9"/>
       <c r="F18" s="9"/>
@@ -2058,7 +2063,7 @@
       <c r="L18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="L19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>90</v>
       </c>
@@ -2116,10 +2121,10 @@
       <c r="L20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="9" customFormat="1">
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2148,7 +2153,7 @@
       <c r="L22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -2177,7 +2182,7 @@
       <c r="L23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24"/>
       <c r="D24" s="9"/>
       <c r="F24" s="9"/>
@@ -2187,7 +2192,7 @@
       <c r="L24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -2214,7 +2219,7 @@
       <c r="L25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26"/>
       <c r="D26" s="9"/>
       <c r="F26" s="9"/>
@@ -2224,7 +2229,7 @@
       <c r="L26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -2253,7 +2258,7 @@
       <c r="L27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="L28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="C29"/>
       <c r="D29" s="9"/>
       <c r="F29" s="9"/>
@@ -2291,7 +2296,7 @@
       <c r="I29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2319,7 +2324,7 @@
       <c r="I30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -2347,7 +2352,7 @@
       <c r="I31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
@@ -2375,7 +2380,7 @@
       <c r="I32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -2403,7 +2408,7 @@
       <c r="I33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -2431,7 +2436,7 @@
       <c r="I34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -2459,7 +2464,7 @@
       <c r="I35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -2487,7 +2492,7 @@
       <c r="I36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="C37"/>
       <c r="D37" s="9"/>
       <c r="F37" s="9"/>
@@ -2496,7 +2501,7 @@
       <c r="I37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -2524,7 +2529,7 @@
       <c r="I38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2552,7 +2557,7 @@
       <c r="I39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2585,7 @@
       <c r="I40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2608,7 +2613,7 @@
       <c r="I41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2636,7 +2641,7 @@
       <c r="I42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2664,7 +2669,7 @@
       <c r="I43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="C45"/>
       <c r="D45" s="9"/>
       <c r="F45" s="9"/>
@@ -2702,7 +2707,7 @@
       <c r="I45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2730,7 +2735,7 @@
       <c r="I46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="I47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -2786,7 +2791,7 @@
       <c r="I48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -2814,7 +2819,7 @@
       <c r="I49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -2842,7 +2847,7 @@
       <c r="I50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2870,7 +2875,7 @@
       <c r="I51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2903,7 @@
       <c r="I52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="6" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +2930,7 @@
       </c>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="C54"/>
       <c r="D54" s="9"/>
       <c r="F54" s="9"/>
@@ -2934,7 +2939,7 @@
       <c r="I54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -2962,7 +2967,7 @@
       <c r="I55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -2990,7 +2995,7 @@
       <c r="I56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
@@ -3018,7 +3023,7 @@
       <c r="I57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
@@ -3046,7 +3051,7 @@
       <c r="I58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="I59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -3102,7 +3107,7 @@
       <c r="I60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
@@ -3125,14 +3130,14 @@
         <v>83</v>
       </c>
       <c r="H61" s="9">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>87</v>
       </c>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>96</v>
       </c>
@@ -3162,7 +3167,7 @@
       </c>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
@@ -3185,14 +3190,14 @@
         <v>85</v>
       </c>
       <c r="H63" s="9">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>87</v>
       </c>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -3222,7 +3227,7 @@
       </c>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="C65"/>
       <c r="D65" s="9"/>
       <c r="F65" s="9"/>
@@ -3231,7 +3236,7 @@
       <c r="I65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -3259,7 +3264,7 @@
       <c r="I66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>97</v>
       </c>
@@ -3287,7 +3292,7 @@
       <c r="I67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="7" customFormat="1">
       <c r="A68" s="7" t="s">
         <v>97</v>
       </c>
@@ -3315,7 +3320,7 @@
       <c r="I68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="7" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>97</v>
       </c>
@@ -3343,7 +3348,7 @@
       <c r="I69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="7" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>97</v>
       </c>
@@ -3371,7 +3376,7 @@
       <c r="I70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="7" customFormat="1">
       <c r="A71" s="7" t="s">
         <v>97</v>
       </c>
@@ -3399,7 +3404,7 @@
       <c r="I71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="7" customFormat="1">
       <c r="A72" s="7" t="s">
         <v>97</v>
       </c>
@@ -3427,7 +3432,7 @@
       <c r="I72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="7" customFormat="1">
       <c r="A73" s="7" t="s">
         <v>97</v>
       </c>
@@ -3455,7 +3460,7 @@
       <c r="I73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="7" customFormat="1">
       <c r="A74" s="7" t="s">
         <v>97</v>
       </c>
@@ -3483,7 +3488,7 @@
       <c r="I74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="7" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>97</v>
       </c>
@@ -3511,7 +3516,7 @@
       <c r="I75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="7" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>97</v>
       </c>
@@ -3539,7 +3544,7 @@
       <c r="I76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="7" customFormat="1">
       <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
@@ -3567,7 +3572,7 @@
       <c r="I77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="7" customFormat="1">
       <c r="A78" s="7" t="s">
         <v>97</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="I78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="7" customFormat="1">
       <c r="A79" s="7" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3628,7 @@
       <c r="I79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
@@ -3651,7 +3656,7 @@
       <c r="I80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>97</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="I81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="7" customFormat="1">
       <c r="A82" s="7" t="s">
         <v>97</v>
       </c>
@@ -3707,7 +3712,7 @@
       <c r="I82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="7" customFormat="1">
       <c r="A83" s="7" t="s">
         <v>97</v>
       </c>
@@ -3735,7 +3740,7 @@
       <c r="I83" s="9"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="7" customFormat="1">
       <c r="A84" s="7" t="s">
         <v>97</v>
       </c>
@@ -3763,7 +3768,7 @@
       <c r="I84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="7" customFormat="1">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="I85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>97</v>
       </c>
@@ -3819,7 +3824,7 @@
       <c r="I86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>97</v>
       </c>
@@ -3847,7 +3852,7 @@
       <c r="I87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
         <v>97</v>
       </c>
@@ -3875,7 +3880,7 @@
       <c r="I88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="7" customFormat="1">
       <c r="A89" s="7" t="s">
         <v>97</v>
       </c>
@@ -3903,10 +3908,10 @@
       <c r="I89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="9" customFormat="1">
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -3934,7 +3939,7 @@
       <c r="I91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="I92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -3990,7 +3995,7 @@
       <c r="I93" s="9"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="C94"/>
       <c r="D94" s="9"/>
       <c r="F94" s="9"/>
@@ -3999,7 +4004,7 @@
       <c r="I94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>164</v>
       </c>
@@ -4029,7 +4034,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="9" t="s">
         <v>164</v>
       </c>
@@ -4059,7 +4064,7 @@
       </c>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="9" t="s">
         <v>164</v>
       </c>
@@ -4087,7 +4092,7 @@
       <c r="I97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="9" t="s">
         <v>164</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="I98" s="9"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="9" t="s">
         <v>164</v>
       </c>
@@ -4143,7 +4148,7 @@
       <c r="I99" s="9"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="9" t="s">
         <v>164</v>
       </c>
@@ -4171,7 +4176,7 @@
       <c r="I100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="9" t="s">
         <v>164</v>
       </c>
@@ -4199,7 +4204,7 @@
       <c r="I101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="C102"/>
       <c r="D102" s="9"/>
       <c r="F102" s="9"/>
@@ -4208,7 +4213,7 @@
       <c r="I102" s="9"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4236,7 +4241,7 @@
       <c r="I103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="9" t="s">
         <v>165</v>
       </c>
@@ -4264,7 +4269,7 @@
       <c r="I104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="9" t="s">
         <v>165</v>
       </c>
@@ -4292,7 +4297,7 @@
       <c r="I105" s="9"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="C106"/>
       <c r="D106" s="9"/>
       <c r="F106" s="9"/>
@@ -4301,10 +4306,10 @@
       <c r="I106" s="9"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="9" customFormat="1">
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>99</v>
       </c>
@@ -4330,7 +4335,7 @@
       </c>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>100</v>
       </c>
@@ -4356,7 +4361,7 @@
       </c>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="C110"/>
       <c r="D110" s="9"/>
       <c r="F110" s="23"/>
@@ -4365,7 +4370,7 @@
       <c r="I110" s="23"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
@@ -4391,7 +4396,7 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>102</v>
       </c>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>103</v>
       </c>
@@ -4443,7 +4448,7 @@
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>104</v>
       </c>
@@ -4469,7 +4474,7 @@
       </c>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="F115" s="9"/>
@@ -4477,7 +4482,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="F116" s="9"/>
@@ -4485,7 +4490,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="F117" s="9"/>
@@ -4493,7 +4498,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="F118" s="9"/>
@@ -4501,7 +4506,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="F119" s="9"/>
@@ -4509,7 +4514,7 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="F120" s="9"/>
@@ -4517,7 +4522,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="F121" s="9"/>
@@ -4525,7 +4530,7 @@
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="F122" s="9"/>
@@ -4533,7 +4538,7 @@
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="F123" s="9"/>
@@ -4541,7 +4546,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="F124" s="9"/>
@@ -4549,7 +4554,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="F125" s="9"/>
@@ -4557,7 +4562,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="F126" s="9"/>
@@ -4565,7 +4570,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="F127" s="9"/>
@@ -4573,7 +4578,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="F128" s="9"/>
@@ -4581,7 +4586,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:9">
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="F129" s="9"/>
@@ -4589,7 +4594,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:9">
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="F130" s="9"/>
@@ -4597,7 +4602,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:9">
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="F131" s="9"/>
@@ -4605,7 +4610,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:9">
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="F132" s="9"/>
@@ -4613,7 +4618,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:9">
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="F133" s="9"/>
@@ -4621,7 +4626,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:9">
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="F134" s="9"/>
@@ -4629,7 +4634,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:9">
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="F135" s="9"/>
@@ -4637,7 +4642,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:9">
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="F136" s="9"/>
@@ -4645,7 +4650,7 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:9">
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="F137" s="9"/>
@@ -4653,7 +4658,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:9">
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="F138" s="9"/>
@@ -4661,7 +4666,7 @@
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:9">
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="F139" s="9"/>
@@ -4669,7 +4674,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:9">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="F140" s="9"/>
@@ -4677,7 +4682,7 @@
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:9">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="F141" s="9"/>
@@ -4685,7 +4690,7 @@
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:9">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="F142" s="9"/>
@@ -4693,7 +4698,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:9">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="F143" s="9"/>
@@ -4701,7 +4706,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:9">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="F144" s="9"/>
@@ -4709,7 +4714,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:9">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="F145" s="9"/>
@@ -4717,7 +4722,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:9">
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="F146" s="9"/>
@@ -4725,7 +4730,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:9">
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="F147" s="9"/>
@@ -4733,7 +4738,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:9">
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="F148" s="9"/>
@@ -4741,7 +4746,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:9">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="F149" s="9"/>
@@ -4749,7 +4754,7 @@
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:9">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="F150" s="9"/>
@@ -4757,7 +4762,7 @@
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:9">
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="F151" s="9"/>
@@ -4765,7 +4770,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:9">
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="F152" s="9"/>
@@ -4773,7 +4778,7 @@
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:9">
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="F153" s="9"/>
@@ -4781,7 +4786,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:9">
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="F154" s="9"/>
@@ -4789,7 +4794,7 @@
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:9">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="F155" s="9"/>
@@ -4797,7 +4802,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:9">
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="F156" s="9"/>
@@ -4805,7 +4810,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:9">
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="F157" s="9"/>
@@ -4813,7 +4818,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:9">
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="F158" s="9"/>
@@ -4821,7 +4826,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:9">
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="F159" s="9"/>
@@ -4829,7 +4834,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:9">
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="F160" s="9"/>
@@ -4837,7 +4842,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:9">
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="F161" s="9"/>
@@ -4845,7 +4850,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:9">
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="F162" s="9"/>
@@ -4853,7 +4858,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:9">
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="F163" s="9"/>
@@ -4861,7 +4866,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:9">
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="F164" s="9"/>
@@ -4869,7 +4874,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:9">
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="F165" s="9"/>
@@ -4877,7 +4882,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:9">
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="F166" s="9"/>
@@ -4885,7 +4890,7 @@
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:9">
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="F167" s="9"/>
@@ -4893,7 +4898,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:9">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="F168" s="9"/>
@@ -4901,7 +4906,7 @@
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:9">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="F169" s="9"/>
@@ -4909,7 +4914,7 @@
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:9">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="F170" s="9"/>
@@ -4917,7 +4922,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:9">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="F171" s="9"/>
@@ -4925,7 +4930,7 @@
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:9">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="F172" s="9"/>
@@ -4933,7 +4938,7 @@
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:9">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="F173" s="9"/>
@@ -4941,7 +4946,7 @@
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:9">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="F174" s="9"/>
@@ -4949,7 +4954,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:9">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="F175" s="9"/>
@@ -4957,7 +4962,7 @@
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:9">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="F176" s="9"/>
@@ -4965,7 +4970,7 @@
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:9">
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="F177" s="9"/>
@@ -4973,7 +4978,7 @@
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:9">
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="F178" s="9"/>
@@ -4981,7 +4986,7 @@
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:9">
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="F179" s="9"/>
@@ -4989,7 +4994,7 @@
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:9">
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="F180" s="9"/>
@@ -4999,10 +5004,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="F27:F28 F103:F105" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5010,21 +5020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="V25" sqref="A1:AL81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="25">
         <v>-0.14875099999999999</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>5.8522999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="25">
         <v>-0.134552</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>4.9484E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="25">
         <v>-0.11949</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>3.9733999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="25">
         <v>-0.104161</v>
       </c>
@@ -5488,7 +5498,7 @@
         <v>3.1449999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="25">
         <v>-9.1335E-2</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>2.4292999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="25">
         <v>-8.0281000000000005E-2</v>
       </c>
@@ -5720,7 +5730,7 @@
         <v>1.9636000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="25">
         <v>-7.1467000000000003E-2</v>
       </c>
@@ -5836,7 +5846,7 @@
         <v>1.6139000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="25">
         <v>-6.5172999999999995E-2</v>
       </c>
@@ -5952,7 +5962,7 @@
         <v>1.2895999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="25">
         <v>-5.9031E-2</v>
       </c>
@@ -6068,7 +6078,7 @@
         <v>1.1384999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="25">
         <v>-5.4380999999999999E-2</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>1.0057E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="25">
         <v>-4.9981999999999999E-2</v>
       </c>
@@ -6300,7 +6310,7 @@
         <v>8.7779999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="25">
         <v>-4.6751000000000001E-2</v>
       </c>
@@ -6416,7 +6426,7 @@
         <v>7.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="25">
         <v>-4.3227000000000002E-2</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>6.6870000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="25">
         <v>-3.9961999999999998E-2</v>
       </c>
@@ -6648,7 +6658,7 @@
         <v>6.319E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="25">
         <v>-3.7470999999999997E-2</v>
       </c>
@@ -6764,7 +6774,7 @@
         <v>5.7800000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="25">
         <v>-3.5221000000000002E-2</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>5.3730000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="25">
         <v>-3.3360000000000001E-2</v>
       </c>
@@ -6996,7 +7006,7 @@
         <v>5.0410000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="25">
         <v>-3.1677999999999998E-2</v>
       </c>
@@ -7112,7 +7122,7 @@
         <v>4.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="25">
         <v>-2.9982999999999999E-2</v>
       </c>
@@ -7228,7 +7238,7 @@
         <v>4.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="25">
         <v>-2.8764000000000001E-2</v>
       </c>
@@ -7344,7 +7354,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="25">
         <v>-2.7525999999999998E-2</v>
       </c>
@@ -7460,7 +7470,7 @@
         <v>4.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="25">
         <v>-2.6766000000000002E-2</v>
       </c>
@@ -7576,7 +7586,7 @@
         <v>4.2830000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="25">
         <v>-2.6016999999999998E-2</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>4.1859999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="25">
         <v>-2.5180000000000001E-2</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>4.1869999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="25">
         <v>-2.4445000000000001E-2</v>
       </c>
@@ -7924,7 +7934,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="25">
         <v>-2.3739E-2</v>
       </c>
@@ -8040,7 +8050,7 @@
         <v>4.2310000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="25">
         <v>-2.3251000000000001E-2</v>
       </c>
@@ -8156,7 +8166,7 @@
         <v>4.2259999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>-2.298E-2</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>4.169E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>-2.2266000000000001E-2</v>
       </c>
@@ -8388,7 +8398,7 @@
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>-2.2055999999999999E-2</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>4.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>-2.1724E-2</v>
       </c>
@@ -8620,7 +8630,7 @@
         <v>4.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>-2.1425E-2</v>
       </c>
@@ -8736,7 +8746,7 @@
         <v>4.6039999999999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="25">
         <v>-2.1302000000000001E-2</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>4.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="25">
         <v>-2.1166999999999998E-2</v>
       </c>
@@ -8968,7 +8978,7 @@
         <v>4.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="25">
         <v>-2.0912E-2</v>
       </c>
@@ -9084,7 +9094,7 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="25">
         <v>-2.0811E-2</v>
       </c>
@@ -9200,7 +9210,7 @@
         <v>4.9800000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="25">
         <v>-2.0915E-2</v>
       </c>
@@ -9316,7 +9326,7 @@
         <v>5.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="25">
         <v>-2.0834999999999999E-2</v>
       </c>
@@ -9432,7 +9442,7 @@
         <v>5.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="25">
         <v>-2.0604000000000001E-2</v>
       </c>
@@ -9548,7 +9558,7 @@
         <v>5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="25">
         <v>-2.0059E-2</v>
       </c>
@@ -9664,7 +9674,7 @@
         <v>5.0210000000000003E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="25">
         <v>-1.9515999999999999E-2</v>
       </c>
@@ -9780,7 +9790,7 @@
         <v>4.8729999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="25">
         <v>-1.9126000000000001E-2</v>
       </c>
@@ -9896,7 +9906,7 @@
         <v>4.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="25">
         <v>-1.8613000000000001E-2</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>4.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="25">
         <v>-1.8095E-2</v>
       </c>
@@ -10128,7 +10138,7 @@
         <v>3.9789999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="25">
         <v>-1.7356E-2</v>
       </c>
@@ -10244,7 +10254,7 @@
         <v>3.5119999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="25">
         <v>-9.6500000000000006E-3</v>
       </c>
@@ -10360,7 +10370,7 @@
         <v>-9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="25">
         <v>-9.8589999999999997E-3</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>-7.3499999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="25">
         <v>-1.0196E-2</v>
       </c>
@@ -10592,7 +10602,7 @@
         <v>-5.3300000000000005E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="25">
         <v>-1.0458E-2</v>
       </c>
@@ -10708,7 +10718,7 @@
         <v>-3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="25">
         <v>-1.0737E-2</v>
       </c>
@@ -10824,7 +10834,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="25">
         <v>-1.0996000000000001E-2</v>
       </c>
@@ -10940,7 +10950,7 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="25">
         <v>-1.1231E-2</v>
       </c>
@@ -11056,7 +11066,7 @@
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="25">
         <v>-1.1516E-2</v>
       </c>
@@ -11172,7 +11182,7 @@
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="25">
         <v>-1.1776999999999999E-2</v>
       </c>
@@ -11288,7 +11298,7 @@
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="25">
         <v>-1.1900000000000001E-2</v>
       </c>
@@ -11404,7 +11414,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="25">
         <v>-1.2052E-2</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>6.4700000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="25">
         <v>-1.2101000000000001E-2</v>
       </c>
@@ -11636,7 +11646,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="25">
         <v>-1.217E-2</v>
       </c>
@@ -11752,7 +11762,7 @@
         <v>8.9499999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="25">
         <v>-1.2319E-2</v>
       </c>
@@ -11868,7 +11878,7 @@
         <v>9.990000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="25">
         <v>-1.2442999999999999E-2</v>
       </c>
@@ -11984,7 +11994,7 @@
         <v>1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="25">
         <v>-1.2633E-2</v>
       </c>
@@ -12100,7 +12110,7 @@
         <v>1.232E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="25">
         <v>-1.2794E-2</v>
       </c>
@@ -12216,7 +12226,7 @@
         <v>1.348E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="25">
         <v>-1.2991000000000001E-2</v>
       </c>
@@ -12332,7 +12342,7 @@
         <v>1.449E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="25">
         <v>-1.3187000000000001E-2</v>
       </c>
@@ -12448,7 +12458,7 @@
         <v>1.575E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="25">
         <v>-1.3429999999999999E-2</v>
       </c>
@@ -12564,7 +12574,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="25">
         <v>-1.3672999999999999E-2</v>
       </c>
@@ -12680,7 +12690,7 @@
         <v>1.748E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="25">
         <v>-1.406E-2</v>
       </c>
@@ -12796,7 +12806,7 @@
         <v>1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="25">
         <v>-1.4260999999999999E-2</v>
       </c>
@@ -12912,7 +12922,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="25">
         <v>-1.4262E-2</v>
       </c>
@@ -13028,7 +13038,7 @@
         <v>1.9889999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="25">
         <v>-1.4329E-2</v>
       </c>
@@ -13144,7 +13154,7 @@
         <v>1.9710000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="25">
         <v>-1.4213E-2</v>
       </c>
@@ -13260,7 +13270,7 @@
         <v>2.0040000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="25">
         <v>-1.3991E-2</v>
       </c>
@@ -13376,7 +13386,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="25">
         <v>-1.3724999999999999E-2</v>
       </c>
@@ -13492,7 +13502,7 @@
         <v>1.9070000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="25">
         <v>-1.3350000000000001E-2</v>
       </c>
@@ -13608,7 +13618,7 @@
         <v>1.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="25">
         <v>-1.3268E-2</v>
       </c>
@@ -13724,7 +13734,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="25">
         <v>-1.3353E-2</v>
       </c>
@@ -13840,7 +13850,7 @@
         <v>1.377E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="25">
         <v>-1.3552E-2</v>
       </c>
@@ -13956,7 +13966,7 @@
         <v>1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38">
       <c r="A78" s="25">
         <v>-1.3693E-2</v>
       </c>
@@ -14072,7 +14082,7 @@
         <v>8.03E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79" s="25">
         <v>-1.4012999999999999E-2</v>
       </c>
@@ -14188,7 +14198,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80" s="25">
         <v>-1.4388E-2</v>
       </c>
@@ -14304,7 +14314,7 @@
         <v>5.4600000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81" s="25">
         <v>-1.4749E-2</v>
       </c>
@@ -14420,17 +14430,22 @@
         <v>4.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82" s="8"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83" s="8"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14438,23 +14453,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="38" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="25"/>
+    <col min="1" max="7" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="38" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="25">
         <v>-4.6049999999999997E-3</v>
       </c>
@@ -14570,7 +14585,7 @@
         <v>7.2649999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="25">
         <v>-4.4650000000000002E-3</v>
       </c>
@@ -14686,7 +14701,7 @@
         <v>8.9390000000000008E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="25">
         <v>-4.862E-3</v>
       </c>
@@ -14802,7 +14817,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="25">
         <v>-4.3439999999999998E-3</v>
       </c>
@@ -14918,7 +14933,7 @@
         <v>9.9419999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="25">
         <v>-4.0289999999999996E-3</v>
       </c>
@@ -15034,7 +15049,7 @@
         <v>1.0742E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="25">
         <v>-1.8289999999999999E-3</v>
       </c>
@@ -15150,7 +15165,7 @@
         <v>9.9989999999999992E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="25">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -15266,7 +15281,7 @@
         <v>1.0307999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="25">
         <v>-2.7700000000000001E-4</v>
       </c>
@@ -15382,7 +15397,7 @@
         <v>1.1178E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="25">
         <v>-4.7899999999999999E-4</v>
       </c>
@@ -15498,7 +15513,7 @@
         <v>9.9970000000000007E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="25">
         <v>1.07E-3</v>
       </c>
@@ -15614,7 +15629,7 @@
         <v>1.0616E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="25">
         <v>2.1580000000000002E-3</v>
       </c>
@@ -15730,7 +15745,7 @@
         <v>1.0297000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="25">
         <v>2.0089999999999999E-3</v>
       </c>
@@ -15846,7 +15861,7 @@
         <v>9.9069999999999991E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="25">
         <v>2.4759999999999999E-3</v>
       </c>
@@ -15962,7 +15977,7 @@
         <v>9.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="25">
         <v>3.947E-3</v>
       </c>
@@ -16078,7 +16093,7 @@
         <v>9.3349999999999995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="25">
         <v>3.1640000000000001E-3</v>
       </c>
@@ -16194,7 +16209,7 @@
         <v>8.5389999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="25">
         <v>3.8010000000000001E-3</v>
       </c>
@@ -16310,7 +16325,7 @@
         <v>8.4159999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" s="25">
         <v>4.1479999999999998E-3</v>
       </c>
@@ -16426,7 +16441,7 @@
         <v>7.8820000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" s="25">
         <v>4.1679999999999998E-3</v>
       </c>
@@ -16542,7 +16557,7 @@
         <v>7.5009999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" s="25">
         <v>4.5490000000000001E-3</v>
       </c>
@@ -16658,7 +16673,7 @@
         <v>6.8970000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="25">
         <v>3.882E-3</v>
       </c>
@@ -16774,7 +16789,7 @@
         <v>6.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" s="25">
         <v>4.2900000000000004E-3</v>
       </c>
@@ -16890,7 +16905,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" s="25">
         <v>4.6239999999999996E-3</v>
       </c>
@@ -17006,7 +17021,7 @@
         <v>5.078E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="25">
         <v>4.4929999999999996E-3</v>
       </c>
@@ -17122,7 +17137,7 @@
         <v>4.4200000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" s="25">
         <v>4.2700000000000004E-3</v>
       </c>
@@ -17238,7 +17253,7 @@
         <v>3.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" s="25">
         <v>4.2170000000000003E-3</v>
       </c>
@@ -17354,7 +17369,7 @@
         <v>3.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="25">
         <v>3.973E-3</v>
       </c>
@@ -17470,7 +17485,7 @@
         <v>2.555E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" s="25">
         <v>3.8089999999999999E-3</v>
       </c>
@@ -17586,7 +17601,7 @@
         <v>1.885E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>3.823E-3</v>
       </c>
@@ -17702,7 +17717,7 @@
         <v>1.255E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>3.3379999999999998E-3</v>
       </c>
@@ -17818,7 +17833,7 @@
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>3.712E-3</v>
       </c>
@@ -17934,7 +17949,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>3.637E-3</v>
       </c>
@@ -18050,7 +18065,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>3.5820000000000001E-3</v>
       </c>
@@ -18166,7 +18181,7 @@
         <v>-1.083E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" s="25">
         <v>3.7829999999999999E-3</v>
       </c>
@@ -18282,7 +18297,7 @@
         <v>-1.598E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" s="25">
         <v>3.8370000000000001E-3</v>
       </c>
@@ -18398,7 +18413,7 @@
         <v>-2.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" s="25">
         <v>3.7959999999999999E-3</v>
       </c>
@@ -18514,7 +18529,7 @@
         <v>-2.6940000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" s="25">
         <v>4.1409999999999997E-3</v>
       </c>
@@ -18630,7 +18645,7 @@
         <v>-3.0620000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="25">
         <v>3.6740000000000002E-3</v>
       </c>
@@ -18746,7 +18761,7 @@
         <v>-3.6029999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="25">
         <v>3.2669999999999999E-3</v>
       </c>
@@ -18862,7 +18877,7 @@
         <v>-4.0790000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" s="25">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -18978,7 +18993,7 @@
         <v>-4.4970000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" s="25">
         <v>2.5899999999999999E-3</v>
       </c>
@@ -19094,7 +19109,7 @@
         <v>-4.9690000000000003E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" s="25">
         <v>2.8279999999999998E-3</v>
       </c>
@@ -19210,7 +19225,7 @@
         <v>-5.2900000000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" s="25">
         <v>2.8410000000000002E-3</v>
       </c>
@@ -19326,7 +19341,7 @@
         <v>-5.5110000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" s="25">
         <v>2.807E-3</v>
       </c>
@@ -19442,7 +19457,7 @@
         <v>-5.6990000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" s="25">
         <v>2.9750000000000002E-3</v>
       </c>
@@ -19558,7 +19573,7 @@
         <v>-5.7970000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="25">
         <v>2.663E-3</v>
       </c>
@@ -19674,7 +19689,7 @@
         <v>-5.9560000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" s="25">
         <v>8.0169999999999998E-3</v>
       </c>
@@ -19790,7 +19805,7 @@
         <v>-5.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" s="25">
         <v>8.0420000000000005E-3</v>
       </c>
@@ -19906,7 +19921,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" s="25">
         <v>7.7520000000000002E-3</v>
       </c>
@@ -20022,7 +20037,7 @@
         <v>-5.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" s="25">
         <v>7.4409999999999997E-3</v>
       </c>
@@ -20138,7 +20153,7 @@
         <v>-6.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="25">
         <v>7.1060000000000003E-3</v>
       </c>
@@ -20254,7 +20269,7 @@
         <v>-6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="25">
         <v>6.6649999999999999E-3</v>
       </c>
@@ -20370,7 +20385,7 @@
         <v>-6.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="25">
         <v>6.4349999999999997E-3</v>
       </c>
@@ -20486,7 +20501,7 @@
         <v>-6.3270000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="25">
         <v>6.2529999999999999E-3</v>
       </c>
@@ -20602,7 +20617,7 @@
         <v>-6.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="25">
         <v>5.9969999999999997E-3</v>
       </c>
@@ -20718,7 +20733,7 @@
         <v>-6.3600000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="25">
         <v>5.7229999999999998E-3</v>
       </c>
@@ -20834,7 +20849,7 @@
         <v>-6.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="25">
         <v>5.6090000000000003E-3</v>
       </c>
@@ -20950,7 +20965,7 @@
         <v>-6.3410000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="25">
         <v>5.3769999999999998E-3</v>
       </c>
@@ -21066,7 +21081,7 @@
         <v>-6.2909999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" s="25">
         <v>5.2259999999999997E-3</v>
       </c>
@@ -21182,7 +21197,7 @@
         <v>-6.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" s="25">
         <v>5.189E-3</v>
       </c>
@@ -21298,7 +21313,7 @@
         <v>-6.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" s="25">
         <v>5.0039999999999998E-3</v>
       </c>
@@ -21414,7 +21429,7 @@
         <v>-6.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" s="25">
         <v>4.7520000000000001E-3</v>
       </c>
@@ -21530,7 +21545,7 @@
         <v>-6.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" s="25">
         <v>4.7959999999999999E-3</v>
       </c>
@@ -21646,7 +21661,7 @@
         <v>-6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" s="25">
         <v>4.7720000000000002E-3</v>
       </c>
@@ -21762,7 +21777,7 @@
         <v>-6.1069999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="25">
         <v>4.5500000000000002E-3</v>
       </c>
@@ -21878,7 +21893,7 @@
         <v>-6.071E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="25">
         <v>4.4380000000000001E-3</v>
       </c>
@@ -21994,7 +22009,7 @@
         <v>-5.9709999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="25">
         <v>3.7780000000000001E-3</v>
       </c>
@@ -22110,7 +22125,7 @@
         <v>-6.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="25">
         <v>3.5929999999999998E-3</v>
       </c>
@@ -22226,7 +22241,7 @@
         <v>-5.9690000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="25">
         <v>3.395E-3</v>
       </c>
@@ -22342,7 +22357,7 @@
         <v>-5.9259999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" s="25">
         <v>3.4420000000000002E-3</v>
       </c>
@@ -22458,7 +22473,7 @@
         <v>-5.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" s="25">
         <v>3.3649999999999999E-3</v>
       </c>
@@ -22574,7 +22589,7 @@
         <v>-5.7419999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" s="25">
         <v>3.4160000000000002E-3</v>
       </c>
@@ -22690,7 +22705,7 @@
         <v>-5.6540000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" s="25">
         <v>3.405E-3</v>
       </c>
@@ -22806,7 +22821,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" s="25">
         <v>3.4129999999999998E-3</v>
       </c>
@@ -22922,7 +22937,7 @@
         <v>-5.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" s="25">
         <v>3.6259999999999999E-3</v>
       </c>
@@ -23038,7 +23053,7 @@
         <v>-5.2989999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" s="25">
         <v>3.32E-3</v>
       </c>
@@ -23154,7 +23169,7 @@
         <v>-5.1650000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76" s="25">
         <v>3.4859999999999999E-3</v>
       </c>
@@ -23270,7 +23285,7 @@
         <v>-5.0090000000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77" s="25">
         <v>3.7569999999999999E-3</v>
       </c>
@@ -23386,7 +23401,7 @@
         <v>-4.8739999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38">
       <c r="A78" s="25">
         <v>4.1440000000000001E-3</v>
       </c>
@@ -23502,7 +23517,7 @@
         <v>-4.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79" s="25">
         <v>4.6039999999999996E-3</v>
       </c>
@@ -23618,7 +23633,7 @@
         <v>-4.4580000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80" s="25">
         <v>4.6090000000000002E-3</v>
       </c>
@@ -23734,7 +23749,7 @@
         <v>-4.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81" s="25">
         <v>3.741E-3</v>
       </c>
@@ -23850,13 +23865,18 @@
         <v>-6.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82" s="24"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>